--- a/backtest/data/Japan_FDI.xlsx
+++ b/backtest/data/Japan_FDI.xlsx
@@ -1,44 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yisi.liu.2023\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yisiliu/Desktop/QF634/quantresearch/quantresearch/backtest/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D250580-6BAF-414A-8878-4E86C1BE6969}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A914DD9-371E-074B-8D57-FAD43C27D14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10395" yWindow="-105" windowWidth="14850" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10400" yWindow="740" windowWidth="14860" windowHeight="12740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Security</t>
-  </si>
-  <si>
-    <t>FDINJPN Index</t>
-  </si>
-  <si>
-    <t>Start Date</t>
-  </si>
-  <si>
-    <t>End Date</t>
-  </si>
-  <si>
-    <t>Period</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Date</t>
   </si>
@@ -54,7 +48,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="182" formatCode="d/m/yyyy"/>
+    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -540,10 +534,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="22" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -603,25 +596,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
-<volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <volType type="realTimeData">
-    <main first="bofaddin.rtdserver">
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|5569115012098875496</stp>
-        <tr r="A7" s="2"/>
-      </tp>
-    </main>
-  </volType>
-</volTypes>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -659,9 +637,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -694,26 +672,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -746,26 +707,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -939,421 +883,390 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>44926</v>
+      </c>
+      <c r="B2">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="C2">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>44561</v>
+      </c>
+      <c r="B3">
+        <v>0.69</v>
+      </c>
+      <c r="C3">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B4">
+        <v>1.24</v>
+      </c>
+      <c r="C4">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B5">
+        <v>0.78</v>
+      </c>
+      <c r="C5">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B6">
+        <v>0.5</v>
+      </c>
+      <c r="C6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B7">
+        <v>0.38</v>
+      </c>
+      <c r="C7">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B8">
+        <v>0.82</v>
+      </c>
+      <c r="C8">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B9">
+        <v>0.12</v>
+      </c>
+      <c r="C9">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B10">
+        <v>0.4</v>
+      </c>
+      <c r="C10">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B11">
+        <v>0.2</v>
+      </c>
+      <c r="C11">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B12">
+        <v>0.01</v>
+      </c>
+      <c r="C12">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B13">
+        <v>-0.01</v>
+      </c>
+      <c r="C13">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>40543</v>
+      </c>
+      <c r="B14">
+        <v>0.13</v>
+      </c>
+      <c r="C14">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>40178</v>
+      </c>
+      <c r="B15">
+        <v>0.23</v>
+      </c>
+      <c r="C15">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>39813</v>
+      </c>
+      <c r="B16">
+        <v>0.48</v>
+      </c>
+      <c r="C16">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>39447</v>
+      </c>
+      <c r="B17">
+        <v>0.47</v>
+      </c>
+      <c r="C17">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>39082</v>
+      </c>
+      <c r="B18">
+        <v>-0.05</v>
+      </c>
+      <c r="C18">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>38717</v>
+      </c>
+      <c r="B19">
+        <v>0.11</v>
+      </c>
+      <c r="C19">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>38352</v>
+      </c>
+      <c r="B20">
+        <v>0.15</v>
+      </c>
+      <c r="C20">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>37986</v>
+      </c>
+      <c r="B21">
+        <v>0.19</v>
+      </c>
+      <c r="C21">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>37621</v>
+      </c>
+      <c r="B22">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C22">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>37256</v>
+      </c>
+      <c r="B23">
+        <v>0.11</v>
+      </c>
+      <c r="C23">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>36891</v>
+      </c>
+      <c r="B24">
+        <v>0.22</v>
+      </c>
+      <c r="C24">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>36525</v>
+      </c>
+      <c r="B25">
+        <v>0.32</v>
+      </c>
+      <c r="C25">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>36160</v>
+      </c>
+      <c r="B26">
+        <v>0.06</v>
+      </c>
+      <c r="C26">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>35795</v>
+      </c>
+      <c r="B27">
+        <v>0.06</v>
+      </c>
+      <c r="C27">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>35430</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>35064</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>34699</v>
+      </c>
+      <c r="B30">
+        <v>0.02</v>
+      </c>
+      <c r="C30">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>34334</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>33969</v>
+      </c>
+      <c r="B32">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C32">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>33603</v>
+      </c>
+      <c r="B33">
+        <v>0.04</v>
+      </c>
+      <c r="C33">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
         <v>33238</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2">
-        <v>44926</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <f>_xll.BDH(B1,B6:C6,B2,B3,"Dir=V","Dts=S","Sort=D","Quote=C","QtTyp=P","Days=T",CONCATENATE("Per=c",B4),"DtFmt=D","UseDPDF=Y","cols=3;rows=33")</f>
-        <v>44926</v>
-      </c>
-      <c r="B7">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="C7">
-        <v>1.1200000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>44561</v>
-      </c>
-      <c r="B8">
-        <v>0.69</v>
-      </c>
-      <c r="C8">
-        <v>0.69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>44196</v>
-      </c>
-      <c r="B9">
-        <v>1.24</v>
-      </c>
-      <c r="C9">
-        <v>1.24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>43830</v>
-      </c>
-      <c r="B10">
-        <v>0.78</v>
-      </c>
-      <c r="C10">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>43465</v>
-      </c>
-      <c r="B11">
-        <v>0.5</v>
-      </c>
-      <c r="C11">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>43100</v>
-      </c>
-      <c r="B12">
-        <v>0.38</v>
-      </c>
-      <c r="C12">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>42735</v>
-      </c>
-      <c r="B13">
-        <v>0.82</v>
-      </c>
-      <c r="C13">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>42369</v>
-      </c>
-      <c r="B14">
-        <v>0.12</v>
-      </c>
-      <c r="C14">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>42004</v>
-      </c>
-      <c r="B15">
-        <v>0.4</v>
-      </c>
-      <c r="C15">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>41639</v>
-      </c>
-      <c r="B16">
-        <v>0.2</v>
-      </c>
-      <c r="C16">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>41274</v>
-      </c>
-      <c r="B17">
-        <v>0.01</v>
-      </c>
-      <c r="C17">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>40908</v>
-      </c>
-      <c r="B18">
-        <v>-0.01</v>
-      </c>
-      <c r="C18">
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>40543</v>
-      </c>
-      <c r="B19">
-        <v>0.13</v>
-      </c>
-      <c r="C19">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>40178</v>
-      </c>
-      <c r="B20">
-        <v>0.23</v>
-      </c>
-      <c r="C20">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>39813</v>
-      </c>
-      <c r="B21">
-        <v>0.48</v>
-      </c>
-      <c r="C21">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>39447</v>
-      </c>
-      <c r="B22">
-        <v>0.47</v>
-      </c>
-      <c r="C22">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>39082</v>
-      </c>
-      <c r="B23">
-        <v>-0.05</v>
-      </c>
-      <c r="C23">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>38717</v>
-      </c>
-      <c r="B24">
-        <v>0.11</v>
-      </c>
-      <c r="C24">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>38352</v>
-      </c>
-      <c r="B25">
-        <v>0.15</v>
-      </c>
-      <c r="C25">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>37986</v>
-      </c>
-      <c r="B26">
-        <v>0.19</v>
-      </c>
-      <c r="C26">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>37621</v>
-      </c>
-      <c r="B27">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="C27">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>37256</v>
-      </c>
-      <c r="B28">
-        <v>0.11</v>
-      </c>
-      <c r="C28">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>36891</v>
-      </c>
-      <c r="B29">
-        <v>0.22</v>
-      </c>
-      <c r="C29">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>36525</v>
-      </c>
-      <c r="B30">
-        <v>0.32</v>
-      </c>
-      <c r="C30">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>36160</v>
-      </c>
-      <c r="B31">
+      <c r="B34">
         <v>0.06</v>
       </c>
-      <c r="C31">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>35795</v>
-      </c>
-      <c r="B32">
-        <v>0.06</v>
-      </c>
-      <c r="C32">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>35430</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>35064</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
       <c r="C34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>34699</v>
-      </c>
-      <c r="B35">
-        <v>0.02</v>
-      </c>
-      <c r="C35">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>34334</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>33969</v>
-      </c>
-      <c r="B37">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C37">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>33603</v>
-      </c>
-      <c r="B38">
-        <v>0.04</v>
-      </c>
-      <c r="C38">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>33238</v>
-      </c>
-      <c r="B39">
-        <v>0.06</v>
-      </c>
-      <c r="C39">
         <v>0.06</v>
       </c>
     </row>
